--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland First Division_2023.xlsx
@@ -3793,10 +3793,10 @@
         <v>4</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T17">
         <v>2.8</v>
@@ -3916,19 +3916,19 @@
         <v>6</v>
       </c>
       <c r="BG17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BI17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BK17">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:63">
@@ -3984,10 +3984,10 @@
         <v>2</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T18">
         <v>5</v>
@@ -4104,22 +4104,22 @@
         <v>0</v>
       </c>
       <c r="BF18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ18">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BK18">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:63">
@@ -4172,13 +4172,13 @@
         <v>75</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>2.5</v>
@@ -4295,22 +4295,22 @@
         <v>0</v>
       </c>
       <c r="BF19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BJ19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK19">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:63">
@@ -4554,13 +4554,13 @@
         <v>75</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S21">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T21">
         <v>3.1</v>
@@ -4677,22 +4677,22 @@
         <v>2.7</v>
       </c>
       <c r="BF21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG21">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK21">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland First Division_2023.xlsx
@@ -274,7 +274,7 @@
     <t>['17']</t>
   </si>
   <si>
-    <t>['10', '21', '31', '35', '45+2', '62', '71', '84', '89']</t>
+    <t>['10', '21', '31', '35', '45+2', '65', '71', '84', '89']</t>
   </si>
   <si>
     <t>['41', '73']</t>
@@ -4363,13 +4363,13 @@
         <v>100</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -4486,22 +4486,22 @@
         <v>0</v>
       </c>
       <c r="BF20">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BG20">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI20">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ20">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="BK20">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK21"/>
+  <dimension ref="A1:BK26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
         <v>3</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT6" t="n">
         <v>1.5</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
         <v>0.5</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT10" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0.84</v>
@@ -3133,7 +3133,7 @@
         <v>3</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT13" t="n">
         <v>3</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1.5</v>
@@ -3542,7 +3542,7 @@
         <v>0.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU15" t="n">
         <v>1.09</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT16" t="n">
         <v>2.33</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
@@ -4812,6 +4812,1021 @@
       </c>
       <c r="BK21" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5018303</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Republic of Ireland First Division</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45002.58333333334</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Cobh Ramblers</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Galway United</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>['35', '63']</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>8</v>
+      </c>
+      <c r="S22" t="n">
+        <v>9</v>
+      </c>
+      <c r="T22" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5018305</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Republic of Ireland First Division</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45002.625</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Wexford</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Kerry</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>['3', '77']</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>8</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5018302</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Republic of Ireland First Division</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45002.69791666666</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Athlone Town</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Treaty United</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>['82', '90+8']</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>['51', '68']</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>8</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X24" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5018304</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Republic of Ireland First Division</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Waterford</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Bray Wanderers</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>['20', '22']</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>['45+1', '75']</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>10</v>
+      </c>
+      <c r="S25" t="n">
+        <v>11</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V25" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X25" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5018306</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Republic of Ireland First Division</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45003.6875</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Longford Town</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Finn Harps</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland First Division_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="114">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -286,6 +286,15 @@
     <t>['20', '22']</t>
   </si>
   <si>
+    <t>['6', '40', '69']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['1', '13']</t>
+  </si>
+  <si>
     <t>['41', '73']</t>
   </si>
   <si>
@@ -341,6 +350,12 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['9', '28']</t>
+  </si>
+  <si>
+    <t>['54', '71']</t>
   </si>
 </sst>
 </file>
@@ -702,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK26"/>
+  <dimension ref="A1:BK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,7 +961,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1033,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT2">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1137,7 +1152,7 @@
         <v>75</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1328,7 +1343,7 @@
         <v>75</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1519,7 +1534,7 @@
         <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1606,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT5">
         <v>3</v>
@@ -1710,7 +1725,7 @@
         <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1800,7 +1815,7 @@
         <v>0.33</v>
       </c>
       <c r="AT6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2092,7 +2107,7 @@
         <v>79</v>
       </c>
       <c r="P8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2182,7 +2197,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2283,7 +2298,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q9">
         <v>12</v>
@@ -2373,7 +2388,7 @@
         <v>0.67</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2474,7 +2489,7 @@
         <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2665,7 +2680,7 @@
         <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -2752,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -2856,7 +2871,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2943,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT12">
         <v>0.67</v>
@@ -3047,7 +3062,7 @@
         <v>75</v>
       </c>
       <c r="P13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3328,7 +3343,7 @@
         <v>2</v>
       </c>
       <c r="AT14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU14">
         <v>0.9399999999999999</v>
@@ -3429,7 +3444,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3516,7 +3531,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT15">
         <v>1.67</v>
@@ -3710,7 +3725,7 @@
         <v>0.33</v>
       </c>
       <c r="AT16">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU16">
         <v>1.53</v>
@@ -3811,7 +3826,7 @@
         <v>75</v>
       </c>
       <c r="P17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -3901,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU17">
         <v>1.59</v>
@@ -4002,7 +4017,7 @@
         <v>75</v>
       </c>
       <c r="P18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4280,10 +4295,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU19">
         <v>1.49</v>
@@ -4384,7 +4399,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4662,10 +4677,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU21">
         <v>1.17</v>
@@ -4766,7 +4781,7 @@
         <v>75</v>
       </c>
       <c r="P22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -4957,7 +4972,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5148,7 +5163,7 @@
         <v>88</v>
       </c>
       <c r="P24" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5339,7 +5354,7 @@
         <v>89</v>
       </c>
       <c r="P25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5530,7 +5545,7 @@
         <v>75</v>
       </c>
       <c r="P26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -5672,6 +5687,770 @@
       </c>
       <c r="BK26">
         <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>5018307</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45009.69791666666</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27" t="s">
+        <v>90</v>
+      </c>
+      <c r="P27" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>9</v>
+      </c>
+      <c r="T27">
+        <v>2.93</v>
+      </c>
+      <c r="U27">
+        <v>2.22</v>
+      </c>
+      <c r="V27">
+        <v>3.72</v>
+      </c>
+      <c r="W27">
+        <v>1.39</v>
+      </c>
+      <c r="X27">
+        <v>2.98</v>
+      </c>
+      <c r="Y27">
+        <v>2.93</v>
+      </c>
+      <c r="Z27">
+        <v>1.4</v>
+      </c>
+      <c r="AA27">
+        <v>6.6</v>
+      </c>
+      <c r="AB27">
+        <v>1.08</v>
+      </c>
+      <c r="AC27">
+        <v>2.04</v>
+      </c>
+      <c r="AD27">
+        <v>3.3</v>
+      </c>
+      <c r="AE27">
+        <v>3.05</v>
+      </c>
+      <c r="AF27">
+        <v>1.01</v>
+      </c>
+      <c r="AG27">
+        <v>9.4</v>
+      </c>
+      <c r="AH27">
+        <v>1.26</v>
+      </c>
+      <c r="AI27">
+        <v>3.4</v>
+      </c>
+      <c r="AJ27">
+        <v>1.78</v>
+      </c>
+      <c r="AK27">
+        <v>2</v>
+      </c>
+      <c r="AL27">
+        <v>1.7</v>
+      </c>
+      <c r="AM27">
+        <v>2.1</v>
+      </c>
+      <c r="AN27">
+        <v>1.33</v>
+      </c>
+      <c r="AO27">
+        <v>1.28</v>
+      </c>
+      <c r="AP27">
+        <v>1.63</v>
+      </c>
+      <c r="AQ27">
+        <v>2</v>
+      </c>
+      <c r="AR27">
+        <v>0.5</v>
+      </c>
+      <c r="AS27">
+        <v>2.33</v>
+      </c>
+      <c r="AT27">
+        <v>0.33</v>
+      </c>
+      <c r="AU27">
+        <v>1.58</v>
+      </c>
+      <c r="AV27">
+        <v>1.48</v>
+      </c>
+      <c r="AW27">
+        <v>3.06</v>
+      </c>
+      <c r="AX27">
+        <v>1.75</v>
+      </c>
+      <c r="AY27">
+        <v>7.7</v>
+      </c>
+      <c r="AZ27">
+        <v>2.48</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>1.54</v>
+      </c>
+      <c r="BC27">
+        <v>1.78</v>
+      </c>
+      <c r="BD27">
+        <v>2.23</v>
+      </c>
+      <c r="BE27">
+        <v>3.05</v>
+      </c>
+      <c r="BF27">
+        <v>6</v>
+      </c>
+      <c r="BG27">
+        <v>4</v>
+      </c>
+      <c r="BH27">
+        <v>8</v>
+      </c>
+      <c r="BI27">
+        <v>1</v>
+      </c>
+      <c r="BJ27">
+        <v>14</v>
+      </c>
+      <c r="BK27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5018308</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45009.69791666666</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>91</v>
+      </c>
+      <c r="P28" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>8</v>
+      </c>
+      <c r="T28">
+        <v>1.85</v>
+      </c>
+      <c r="U28">
+        <v>2.4</v>
+      </c>
+      <c r="V28">
+        <v>7</v>
+      </c>
+      <c r="W28">
+        <v>1.33</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>2.6</v>
+      </c>
+      <c r="Z28">
+        <v>1.44</v>
+      </c>
+      <c r="AA28">
+        <v>5.75</v>
+      </c>
+      <c r="AB28">
+        <v>1.1</v>
+      </c>
+      <c r="AC28">
+        <v>1.35</v>
+      </c>
+      <c r="AD28">
+        <v>4.4</v>
+      </c>
+      <c r="AE28">
+        <v>6.6</v>
+      </c>
+      <c r="AF28">
+        <v>1.04</v>
+      </c>
+      <c r="AG28">
+        <v>10</v>
+      </c>
+      <c r="AH28">
+        <v>1.25</v>
+      </c>
+      <c r="AI28">
+        <v>3.6</v>
+      </c>
+      <c r="AJ28">
+        <v>1.72</v>
+      </c>
+      <c r="AK28">
+        <v>1.93</v>
+      </c>
+      <c r="AL28">
+        <v>2.1</v>
+      </c>
+      <c r="AM28">
+        <v>1.65</v>
+      </c>
+      <c r="AN28">
+        <v>1.07</v>
+      </c>
+      <c r="AO28">
+        <v>1.2</v>
+      </c>
+      <c r="AP28">
+        <v>3</v>
+      </c>
+      <c r="AQ28">
+        <v>3</v>
+      </c>
+      <c r="AR28">
+        <v>1</v>
+      </c>
+      <c r="AS28">
+        <v>3</v>
+      </c>
+      <c r="AT28">
+        <v>0.67</v>
+      </c>
+      <c r="AU28">
+        <v>2.41</v>
+      </c>
+      <c r="AV28">
+        <v>0.64</v>
+      </c>
+      <c r="AW28">
+        <v>3.05</v>
+      </c>
+      <c r="AX28">
+        <v>1.26</v>
+      </c>
+      <c r="AY28">
+        <v>9.6</v>
+      </c>
+      <c r="AZ28">
+        <v>4.8</v>
+      </c>
+      <c r="BA28">
+        <v>1.33</v>
+      </c>
+      <c r="BB28">
+        <v>1.56</v>
+      </c>
+      <c r="BC28">
+        <v>1.91</v>
+      </c>
+      <c r="BD28">
+        <v>2.41</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>4</v>
+      </c>
+      <c r="BG28">
+        <v>4</v>
+      </c>
+      <c r="BH28">
+        <v>6</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>10</v>
+      </c>
+      <c r="BK28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>5018309</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45009.69791666666</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>8</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>3.35</v>
+      </c>
+      <c r="AD29">
+        <v>3.5</v>
+      </c>
+      <c r="AE29">
+        <v>1.87</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>1.75</v>
+      </c>
+      <c r="AK29">
+        <v>2.03</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0.5</v>
+      </c>
+      <c r="AR29">
+        <v>1.5</v>
+      </c>
+      <c r="AS29">
+        <v>0.33</v>
+      </c>
+      <c r="AT29">
+        <v>2</v>
+      </c>
+      <c r="AU29">
+        <v>0.84</v>
+      </c>
+      <c r="AV29">
+        <v>1.32</v>
+      </c>
+      <c r="AW29">
+        <v>2.16</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>2</v>
+      </c>
+      <c r="BG29">
+        <v>6</v>
+      </c>
+      <c r="BH29">
+        <v>1</v>
+      </c>
+      <c r="BI29">
+        <v>6</v>
+      </c>
+      <c r="BJ29">
+        <v>3</v>
+      </c>
+      <c r="BK29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>5018311</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45009.70833333334</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>92</v>
+      </c>
+      <c r="P30" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>2.82</v>
+      </c>
+      <c r="U30">
+        <v>2.14</v>
+      </c>
+      <c r="V30">
+        <v>3.66</v>
+      </c>
+      <c r="W30">
+        <v>1.36</v>
+      </c>
+      <c r="X30">
+        <v>2.9</v>
+      </c>
+      <c r="Y30">
+        <v>2.65</v>
+      </c>
+      <c r="Z30">
+        <v>1.43</v>
+      </c>
+      <c r="AA30">
+        <v>6</v>
+      </c>
+      <c r="AB30">
+        <v>1.09</v>
+      </c>
+      <c r="AC30">
+        <v>2.3</v>
+      </c>
+      <c r="AD30">
+        <v>3.4</v>
+      </c>
+      <c r="AE30">
+        <v>3.1</v>
+      </c>
+      <c r="AF30">
+        <v>1.01</v>
+      </c>
+      <c r="AG30">
+        <v>12</v>
+      </c>
+      <c r="AH30">
+        <v>1.28</v>
+      </c>
+      <c r="AI30">
+        <v>3.6</v>
+      </c>
+      <c r="AJ30">
+        <v>1.9</v>
+      </c>
+      <c r="AK30">
+        <v>1.87</v>
+      </c>
+      <c r="AL30">
+        <v>1.66</v>
+      </c>
+      <c r="AM30">
+        <v>2.15</v>
+      </c>
+      <c r="AN30">
+        <v>1.33</v>
+      </c>
+      <c r="AO30">
+        <v>1.25</v>
+      </c>
+      <c r="AP30">
+        <v>1.6</v>
+      </c>
+      <c r="AQ30">
+        <v>0.67</v>
+      </c>
+      <c r="AR30">
+        <v>2.33</v>
+      </c>
+      <c r="AS30">
+        <v>0.75</v>
+      </c>
+      <c r="AT30">
+        <v>2</v>
+      </c>
+      <c r="AU30">
+        <v>1.22</v>
+      </c>
+      <c r="AV30">
+        <v>1.5</v>
+      </c>
+      <c r="AW30">
+        <v>2.72</v>
+      </c>
+      <c r="AX30">
+        <v>1.73</v>
+      </c>
+      <c r="AY30">
+        <v>7.6</v>
+      </c>
+      <c r="AZ30">
+        <v>2.53</v>
+      </c>
+      <c r="BA30">
+        <v>1.4</v>
+      </c>
+      <c r="BB30">
+        <v>1.78</v>
+      </c>
+      <c r="BC30">
+        <v>2.23</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>5</v>
+      </c>
+      <c r="BG30">
+        <v>6</v>
+      </c>
+      <c r="BH30">
+        <v>3</v>
+      </c>
+      <c r="BI30">
+        <v>7</v>
+      </c>
+      <c r="BJ30">
+        <v>8</v>
+      </c>
+      <c r="BK30">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK30"/>
+  <dimension ref="A1:BK35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT4" t="n">
         <v>3</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1774,7 +1774,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5018290</v>
+        <v>5018287</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1794,182 +1794,182 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Galway United</t>
+          <t>Athlone Town</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['37']</t>
+          <t>['48', '66', '90+1']</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['44']</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>4.24</v>
       </c>
       <c r="U7" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V7" t="n">
-        <v>6.5</v>
+        <v>2.29</v>
       </c>
       <c r="W7" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="X7" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.49</v>
+        <v>2.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.42</v>
+        <v>4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP7" t="n">
         <v>1.22</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
         <v>4</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>9</v>
-      </c>
       <c r="BG7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1977,7 +1977,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5018289</v>
+        <v>5018288</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1997,182 +1997,182 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cobh Ramblers</t>
+          <t>Bray Wanderers</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Wexford</t>
+          <t>Kerry</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['10', '83']</t>
+          <t>['16', '48', '57']</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>['14']</t>
+          <t>['50']</t>
         </is>
       </c>
       <c r="Q8" t="n">
+        <v>8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>9</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
         <v>6</v>
       </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>7</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="BG8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ8" t="n">
         <v>11</v>
       </c>
-      <c r="AH8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>10</v>
-      </c>
       <c r="BK8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2180,7 +2180,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>5018291</v>
+        <v>5018289</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2200,92 +2200,92 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Cobh Ramblers</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Longford Town</t>
+          <t>Wexford</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>['10', '83']</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>['56']</t>
+          <t>['14']</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.91</v>
+        <v>3.98</v>
       </c>
       <c r="U9" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="V9" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X9" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.46</v>
+        <v>3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.95</v>
+        <v>1.81</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>1.17</v>
@@ -2300,19 +2300,19 @@
         <v>2.15</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.05</v>
+        <v>2.33</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.11</v>
+        <v>1.73</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.6</v>
+        <v>1.22</v>
       </c>
       <c r="AQ9" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2360,22 +2360,22 @@
         <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BI9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BJ9" t="n">
         <v>10</v>
       </c>
       <c r="BK9" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -2383,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>5018287</v>
+        <v>5018290</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2403,182 +2403,182 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Athlone Town</t>
+          <t>Galway United</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>10</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>13</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI10" t="n">
         <v>4</v>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>['48', '66', '90+1']</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>['44']</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
+      <c r="AJ10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG10" t="n">
         <v>4</v>
       </c>
-      <c r="R10" t="n">
+      <c r="BH10" t="n">
         <v>4</v>
       </c>
-      <c r="S10" t="n">
-        <v>8</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>8</v>
-      </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2586,7 +2586,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5018288</v>
+        <v>5018291</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2606,12 +2606,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bray Wanderers</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Kerry</t>
+          <t>Longford Town</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -2624,164 +2624,164 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>12</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>14</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
         <v>4</v>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>['16', '48', '57']</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>['50']</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>8</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>9</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF11" t="n">
+      <c r="BG11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH11" t="n">
         <v>6</v>
       </c>
-      <c r="BG11" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>5</v>
-      </c>
       <c r="BI11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2789,7 +2789,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>5018292</v>
+        <v>5018294</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2809,140 +2809,140 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Kerry</t>
+          <t>Wexford</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>Athlone Town</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>['9']</t>
+          <t>['11', '50', '61']</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>['31']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>4.56</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.4</v>
+        <v>1.89</v>
       </c>
       <c r="AD12" t="n">
         <v>3.7</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.71</v>
+        <v>3.35</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="AJ12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS12" t="n">
         <v>1.75</v>
       </c>
-      <c r="AK12" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>0.33</v>
-      </c>
       <c r="AT12" t="n">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.85</v>
+        <v>2.63</v>
       </c>
       <c r="AX12" t="n">
         <v>0</v>
@@ -2969,22 +2969,22 @@
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BJ12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BK12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2992,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>5018293</v>
+        <v>5018292</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3012,140 +3012,140 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Kerry</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Galway United</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['9']</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>['22']</t>
+          <t>['31']</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T13" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>3.92</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.13</v>
+        <v>4.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AE13" t="n">
-        <v>2.99</v>
+        <v>1.71</v>
       </c>
       <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AV13" t="n">
         <v>1.01</v>
       </c>
-      <c r="AG13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>2.8</v>
-      </c>
       <c r="AW13" t="n">
-        <v>3.95</v>
+        <v>1.85</v>
       </c>
       <c r="AX13" t="n">
         <v>0</v>
@@ -3172,22 +3172,22 @@
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -3195,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>5018294</v>
+        <v>5018293</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -3215,179 +3215,179 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Wexford</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Athlone Town</t>
+          <t>Galway United</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>['11', '50', '61']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['22']</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>8</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
         <v>4</v>
       </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="V14" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>3</v>
-      </c>
       <c r="BH14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>7</v>
@@ -3542,7 +3542,7 @@
         <v>0.75</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU15" t="n">
         <v>1.09</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
         <v>2</v>
@@ -3804,7 +3804,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>5018300</v>
+        <v>5018297</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3824,31 +3824,31 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>Athlone Town</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cobh Ramblers</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -3857,149 +3857,149 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>['61', '80', '84']</t>
+          <t>['14']</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
         <v>7</v>
       </c>
       <c r="T17" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="U17" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="V17" t="n">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="W17" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="X17" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.62</v>
+        <v>2.05</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AB17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP17" t="n">
         <v>1.1</v>
       </c>
-      <c r="AC17" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>1.65</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="AV17" t="n">
-        <v>1.46</v>
+        <v>1.93</v>
       </c>
       <c r="AW17" t="n">
-        <v>3.05</v>
+        <v>3.47</v>
       </c>
       <c r="AX17" t="n">
-        <v>1.49</v>
+        <v>3.54</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AZ17" t="n">
-        <v>3.24</v>
+        <v>1.42</v>
       </c>
       <c r="BA17" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="BB17" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="BC17" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="BD17" t="n">
-        <v>2.49</v>
+        <v>2.42</v>
       </c>
       <c r="BE17" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="n">
         <v>6</v>
       </c>
       <c r="BG17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH17" t="n">
         <v>7</v>
       </c>
-      <c r="BH17" t="n">
-        <v>6</v>
-      </c>
       <c r="BI17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -4007,7 +4007,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>5018297</v>
+        <v>5018298</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -4027,31 +4027,31 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Athlone Town</t>
+          <t>Bray Wanderers</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Longford Town</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -4060,149 +4060,149 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>['14']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>5</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY18" t="n">
         <v>7</v>
       </c>
-      <c r="T18" t="n">
+      <c r="AZ18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
         <v>5</v>
       </c>
-      <c r="U18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>6</v>
-      </c>
       <c r="BG18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BJ18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BK18" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -4210,7 +4210,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>5018298</v>
+        <v>5018299</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -4230,182 +4230,182 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bray Wanderers</t>
+          <t>Galway United</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Longford Town</t>
+          <t>Kerry</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['10', '21', '31', '35', '45+2', '65', '71', '84', '89']</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['68']</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH19" t="n">
         <v>6</v>
       </c>
-      <c r="AB19" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH19" t="n">
+      <c r="BI19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK19" t="n">
         <v>4</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -4413,7 +4413,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>5018299</v>
+        <v>5018300</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -4433,182 +4433,182 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Galway United</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Kerry</t>
+          <t>Cobh Ramblers</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>['61', '80', '84']</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>7</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG20" t="n">
         <v>9</v>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>['10', '21', '31', '35', '45+2', '65', '71', '84', '89']</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>['68']</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
+      <c r="AH20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG20" t="n">
         <v>7</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" t="n">
-        <v>8</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>14</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>2</v>
       </c>
       <c r="BH20" t="n">
         <v>6</v>
       </c>
       <c r="BI20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ20" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="BK20" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>3</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
@@ -5366,10 +5366,10 @@
         <v>0.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU24" t="n">
         <v>1.58</v>
@@ -5569,10 +5569,10 @@
         <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU25" t="n">
         <v>0.71</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.73</v>
@@ -6639,6 +6639,1021 @@
       </c>
       <c r="BK30" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5018314</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Republic of Ireland First Division</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45016.65625</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Waterford</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Finn Harps</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>7</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['29', '44', '45+2', '54', '69', '77', '81']</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>9</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5018312</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Republic of Ireland First Division</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45016.65625</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Athlone Town</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Galway United</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['39', '59', '74']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>6</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>11</v>
+      </c>
+      <c r="T32" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5018313</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Republic of Ireland First Division</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45016.65625</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Cobh Ramblers</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Bray Wanderers</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['40', '64']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5018315</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Republic of Ireland First Division</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45016.65625</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Wexford</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Treaty United</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>['45+8']</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>11</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>15</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5018316</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Republic of Ireland First Division</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45017.64583333334</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Longford Town</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Kerry</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['10', '89']</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>6</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland First Division_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK35"/>
+  <dimension ref="A1:BK40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
         <v>1.25</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT4" t="n">
         <v>3</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>0.33</v>
@@ -2730,7 +2730,7 @@
         <v>1.25</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0.9399999999999999</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT13" t="n">
         <v>0.75</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU18" t="n">
         <v>1.49</v>
@@ -4554,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>2</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT22" t="n">
         <v>3</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT27" t="n">
         <v>0.33</v>
@@ -6181,7 +6181,7 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU28" t="n">
         <v>2.41</v>
@@ -6381,10 +6381,10 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>0.84</v>
@@ -7193,7 +7193,7 @@
         <v>1.67</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT33" t="n">
         <v>1.25</v>
@@ -7396,7 +7396,7 @@
         <v>0.67</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT34" t="n">
         <v>0.75</v>
@@ -7654,6 +7654,1021 @@
       </c>
       <c r="BK35" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5018321</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Republic of Ireland First Division</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Wexford</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Galway United</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['45+3', '53', '75', '80']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5018317</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Republic of Ireland First Division</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F37" t="n">
+        <v>8</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Treaty United</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Longford Town</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['6', '50', '82']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['20', '79']</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5018318</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Republic of Ireland First Division</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Bray Wanderers</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Athlone Town</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>9</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V38" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5018319</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Republic of Ireland First Division</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Cobh Ramblers</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Waterford</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['8', '11', '80']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5018320</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Republic of Ireland First Division</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Kerry</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Finn Harps</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland First Division_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland First Division_2023.xlsx
@@ -7718,13 +7718,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="S36" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="T36" t="n">
         <v>5</v>
@@ -7841,22 +7841,22 @@
         <v>2.54</v>
       </c>
       <c r="BF36" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG36" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH36" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI36" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ36" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK36" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -7921,13 +7921,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T37" t="n">
         <v>2.7</v>
@@ -8044,22 +8044,22 @@
         <v>4.1</v>
       </c>
       <c r="BF37" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG37" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH37" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI37" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ37" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK37" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -8247,22 +8247,22 @@
         <v>3.1</v>
       </c>
       <c r="BF38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG38" t="n">
         <v>4</v>
       </c>
       <c r="BH38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ38" t="n">
         <v>15</v>
       </c>
       <c r="BK38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -8327,13 +8327,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R39" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T39" t="n">
         <v>4.75</v>
@@ -8450,22 +8450,22 @@
         <v>4.4</v>
       </c>
       <c r="BF39" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG39" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH39" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI39" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ39" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK39" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -8530,13 +8530,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R40" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -8653,22 +8653,22 @@
         <v>0</v>
       </c>
       <c r="BF40" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG40" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH40" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI40" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ40" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK40" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
